--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1130127.132457683</v>
+        <v>1110615.873724999</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2626870.006455272</v>
+        <v>806345.8827095099</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10606130.46744307</v>
+        <v>11446803.26399407</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>79.81927203954925</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37.35930701763399</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>38.85099796338668</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3197306044665</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>84.95149223441521</v>
+        <v>179.4476041204657</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>53.58222158656097</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>26.94389492651078</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.31785343913992</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>86.84873077675958</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>205.4950176686784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>84.07843513558537</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>194.0339972232907</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>28.00806043385895</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492352</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>70.82764119510642</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>176.7697821123584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>196.5593236232614</v>
+        <v>34.987230763697</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>131.5730391207948</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>114.2656173771025</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>97.16210696178872</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>15.4484784967924</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>1.223267762592168</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>138.6980411577372</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>106.5867442799587</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>25.01141625626312</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>132.5373350448695</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>133.0668145221526</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>158.4482401433277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1759.555763042629</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C2" t="n">
-        <v>1759.555763042629</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1401.290064435879</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y2" t="n">
-        <v>1759.555763042629</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="3">
@@ -4391,49 +4391,49 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942401</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942401</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942401</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942401</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1108.365917331524</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>739.4034003911122</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>381.1377017843616</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>381.1377017843616</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2611.339502902651</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="W5" t="n">
-        <v>2258.570847632537</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="X5" t="n">
-        <v>1885.105089371457</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1494.965757395646</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4649,16 +4649,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9687959810045</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9687959810045</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9687959810045</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9687959810045</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9687959810045</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9687959810045</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1166.959449965771</v>
+        <v>532.9757468194225</v>
       </c>
       <c r="C8" t="n">
-        <v>797.9969330253591</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>439.7312344186087</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036445</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2669.933035536898</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2669.933035536898</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2317.164380266784</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1943.698622005704</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1553.559290029893</v>
+        <v>919.5755868835442</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5020,46 +5020,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>351.301436796792</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>685.1208104866384</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1549.639626139993</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M11" t="n">
-        <v>2528.189928969822</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3507.942201196468</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5071,16 +5071,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161915</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089883</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5123,25 +5123,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142067</v>
@@ -5150,19 +5150,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
         <v>1138.808109517387</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1023.336921276364</v>
+        <v>814.7290857654814</v>
       </c>
       <c r="C13" t="n">
-        <v>854.4007383484569</v>
+        <v>645.7929028375745</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>645.7929028375745</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>497.8798092551814</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>350.989861757271</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>183.28702513199</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="W13" t="n">
-        <v>1204.985386106604</v>
+        <v>1445.159680637269</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.985386106604</v>
+        <v>1217.170129739251</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.985386106604</v>
+        <v>996.3775505957211</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5357,19 +5357,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
         <v>2125.961311426849</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1679.729869673362</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1390.627002799006</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1390.627002799006</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>1101.209832762045</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>873.220281864028</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>873.220281864028</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.2000540015823</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
         <v>263.2638710736754</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1568.663645342348</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="W19" t="n">
-        <v>880.9821840431298</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="X19" t="n">
-        <v>652.9926331451124</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y19" t="n">
-        <v>432.2000540015823</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.768765573601</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699244</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.981410493358</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>3441.564240456397</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>3213.57468955838</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>2992.78211041485</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -6068,22 +6068,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.662598458018</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898817</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1701.658977898817</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>1302.311063288258</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
         <v>1715.000032008795</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>391.8948606428723</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8948606428723</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D28" t="n">
-        <v>241.7782212305366</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E28" t="n">
-        <v>241.7782212305366</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.657581931531</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057174</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V28" t="n">
-        <v>1220.870226851287</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W28" t="n">
-        <v>1022.32545551466</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X28" t="n">
-        <v>794.3359046166422</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y28" t="n">
-        <v>573.5433254731121</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6463,28 +6463,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
@@ -6627,13 +6627,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
         <v>1646.12566951853</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1866.513008862232</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1866.513008862232</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>1751.093193329805</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.103642431788</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="32">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>425.7583423057196</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C34" t="n">
-        <v>425.7583423057196</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="D34" t="n">
-        <v>425.7583423057196</v>
+        <v>341.6176704164327</v>
       </c>
       <c r="E34" t="n">
-        <v>425.7583423057196</v>
+        <v>193.7045768340396</v>
       </c>
       <c r="F34" t="n">
-        <v>278.8683948078092</v>
+        <v>193.7045768340396</v>
       </c>
       <c r="G34" t="n">
-        <v>111.1655581825281</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>111.1655581825281</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.957642384228</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>874.540472347267</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X34" t="n">
-        <v>646.5509214492497</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y34" t="n">
-        <v>425.7583423057196</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3942.370854773036</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="C37" t="n">
-        <v>3773.434671845129</v>
+        <v>414.6161344886295</v>
       </c>
       <c r="D37" t="n">
-        <v>3623.318032432793</v>
+        <v>264.4994950762938</v>
       </c>
       <c r="E37" t="n">
-        <v>3475.4049388504</v>
+        <v>264.4994950762938</v>
       </c>
       <c r="F37" t="n">
-        <v>3328.51499135249</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004075</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>4344.811898746805</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U37" t="n">
-        <v>4344.811898746805</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V37" t="n">
-        <v>4344.811898746805</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W37" t="n">
-        <v>4344.811898746805</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X37" t="n">
-        <v>4344.811898746805</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y37" t="n">
-        <v>4124.019319603275</v>
+        <v>583.5523174165364</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,13 +7159,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3623.318032432793</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C40" t="n">
-        <v>3623.318032432793</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D40" t="n">
-        <v>3623.318032432793</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E40" t="n">
-        <v>3475.4049388504</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699244</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493358</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>3623.318032432793</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>3623.318032432793</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y40" t="n">
-        <v>3623.318032432793</v>
+        <v>680.5797464134954</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7417,46 +7417,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>270.9417306852383</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C43" t="n">
-        <v>245.6776738607301</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>524.2401715336166</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>376.3270779512235</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>229.4371304533131</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7599,22 +7599,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570255</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590082</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.5901955154781</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>750.1800661608906</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
@@ -7733,7 +7733,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>876.4469737784534</v>
+        <v>713.5009252592428</v>
       </c>
       <c r="C46" t="n">
-        <v>707.5107908505465</v>
+        <v>544.5647423313359</v>
       </c>
       <c r="D46" t="n">
-        <v>557.3941514382108</v>
+        <v>544.5647423313359</v>
       </c>
       <c r="E46" t="n">
-        <v>409.4810578558177</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7839,19 +7839,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V46" t="n">
-        <v>1796.294738687201</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W46" t="n">
-        <v>1506.87756865024</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X46" t="n">
-        <v>1278.888017752223</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y46" t="n">
-        <v>1058.095438608693</v>
+        <v>895.1493900894825</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>67.53663776704252</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>246.454569480844</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476831</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476822</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>344.5710630546278</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99007165458445</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22755,25 +22755,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22792,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>242.8007662357197</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>80.49006577330459</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22998,19 +22998,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>224.2802725817785</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.9062841375612</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>81.0279806679126</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983812</v>
@@ -23703,16 +23703,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>135.4705141405838</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>25.51495205287847</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>258.5149379027321</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270138</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>96.41917990352141</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>48.93987327667872</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>89.96367471332957</v>
+        <v>251.535767572894</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>35.67378197783302</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>172.2573809594885</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>68.8637012972395</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>80.90394191304568</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.1977802603391</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>41.13393902420015</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>179.9362540566323</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.2354048423647</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>33.48847321415872</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>13.36714812441662</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26079,10 +26079,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>93.68940318050031</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>747113.7212496292</v>
+        <v>1038397.581048951</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>747113.7212496292</v>
+        <v>1038397.581048951</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>747113.7212496292</v>
+        <v>1038397.581048951</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173336</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173336</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756817</v>
       </c>
       <c r="F2" t="n">
         <v>436789.9655756815</v>
       </c>
       <c r="G2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="H2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756817</v>
       </c>
       <c r="I2" t="n">
         <v>436789.9655756815</v>
       </c>
       <c r="J2" t="n">
+        <v>436789.9655756816</v>
+      </c>
+      <c r="K2" t="n">
+        <v>436789.9655756817</v>
+      </c>
+      <c r="L2" t="n">
+        <v>436789.9655756816</v>
+      </c>
+      <c r="M2" t="n">
         <v>436789.9655756815</v>
       </c>
-      <c r="K2" t="n">
-        <v>436789.9655756815</v>
-      </c>
-      <c r="L2" t="n">
-        <v>436789.9655756815</v>
-      </c>
-      <c r="M2" t="n">
-        <v>436789.9655756816</v>
-      </c>
       <c r="N2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756817</v>
       </c>
       <c r="O2" t="n">
         <v>436789.9655756816</v>
       </c>
       <c r="P2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53660.56571087037</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>53660.56571087037</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>53660.56571087037</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709187</v>
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26493,7 +26493,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26508,7 +26508,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408419.6519714907</v>
+        <v>-413460.5802450276</v>
       </c>
       <c r="C6" t="n">
-        <v>181548.2272430535</v>
+        <v>176507.2989695168</v>
       </c>
       <c r="D6" t="n">
-        <v>181548.2272430538</v>
+        <v>176507.2989695168</v>
       </c>
       <c r="E6" t="n">
-        <v>-408590.5746685307</v>
+        <v>-409262.5295707883</v>
       </c>
       <c r="F6" t="n">
-        <v>318786.8393248762</v>
+        <v>318114.884422618</v>
       </c>
       <c r="G6" t="n">
-        <v>318786.8393248759</v>
+        <v>318114.8844226178</v>
       </c>
       <c r="H6" t="n">
-        <v>318786.839324876</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="I6" t="n">
-        <v>318786.839324876</v>
+        <v>318114.884422618</v>
       </c>
       <c r="J6" t="n">
-        <v>142363.6201322829</v>
+        <v>141691.6652300253</v>
       </c>
       <c r="K6" t="n">
-        <v>318786.8393248761</v>
+        <v>318114.8844226183</v>
       </c>
       <c r="L6" t="n">
-        <v>318786.8393248762</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="M6" t="n">
-        <v>189144.5244859312</v>
+        <v>188472.5695836732</v>
       </c>
       <c r="N6" t="n">
-        <v>318786.839324876</v>
+        <v>318114.8844226182</v>
       </c>
       <c r="O6" t="n">
-        <v>318786.8393248761</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="P6" t="n">
-        <v>318786.8393248761</v>
+        <v>318114.8844226181</v>
       </c>
     </row>
   </sheetData>
@@ -26761,10 +26761,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>302.9145696239314</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>148.3046543496692</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>158.9207969366494</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>311.6906701844466</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>243.2051448974511</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33183,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33335,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>258.3236387357551</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>798.7564048937555</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359025</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302269</v>
+        <v>740.8875257003384</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359016</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38019,7 +38019,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>470.4443441954251</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1110615.873724999</v>
+        <v>1126150.974465596</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095099</v>
+        <v>2626870.006455272</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11446803.26399407</v>
+        <v>10606130.46744307</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.81927203954925</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>64.60218603196263</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>38.85099796338668</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>111.1296671927065</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>179.4476041204657</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>53.58222158656097</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>134.8122206876836</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>9.220846587376196</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343913992</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>86.84873077675958</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>216.2486892180377</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>69.24533356290284</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>84.07843513558537</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2019,7 +2019,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>194.0339972232907</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>109.7811651255454</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>136.9968647819697</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>70.82764119510642</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>15.07437110675871</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>34.987230763697</v>
+        <v>6.585303891380838</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203937</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>97.16210696178872</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.223267762592168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>28.20584125154421</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.6980411577372</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.1269998040535</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>132.5373350448695</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>70.77902249554313</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>114.162703879979</v>
       </c>
       <c r="E46" t="n">
-        <v>133.0668145221526</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>2019.396099246396</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1661.130400639645</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1275.342148041401</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>864.3562432517936</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>446.3924351499804</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>119.1977151859833</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.946714969783</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.946714969783</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4430,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1812.286255290752</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1812.286255290752</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1812.286255290752</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.14692331494</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>532.9757468194225</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2505.946441258126</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2252.184655896217</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1921.121768552647</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.5755868835442</v>
+        <v>1568.353113282533</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,31 +4895,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>63.2569682722596</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,34 +5026,34 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622689</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5071,22 +5071,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5123,37 +5123,37 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>814.7290857654814</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C13" t="n">
-        <v>645.7929028375745</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>645.7929028375745</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>497.8798092551814</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>350.989861757271</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>183.28702513199</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.576850674229</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1734.576850674229</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1445.159680637269</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>1217.170129739251</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>996.3775505957211</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622689</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2006.065164440651</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,64 +5333,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320235</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
         <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>873.220281864028</v>
+        <v>943.1650632406976</v>
       </c>
       <c r="C16" t="n">
-        <v>704.2840989361212</v>
+        <v>774.2288803127907</v>
       </c>
       <c r="D16" t="n">
         <v>704.2840989361212</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1679.729869673362</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1390.627002799006</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1390.627002799006</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W16" t="n">
-        <v>1101.209832762045</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X16" t="n">
-        <v>873.220281864028</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="Y16" t="n">
-        <v>873.220281864028</v>
+        <v>943.1650632406976</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>877.1197344942216</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C19" t="n">
-        <v>708.1835515663147</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D19" t="n">
-        <v>558.0669121539789</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5703,22 +5703,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1568.663645342348</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U19" t="n">
-        <v>1279.560778467991</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V19" t="n">
-        <v>1279.560778467991</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="W19" t="n">
-        <v>1279.560778467991</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X19" t="n">
-        <v>1279.560778467991</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y19" t="n">
-        <v>1058.768199324461</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>416.1091927888621</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="23">
@@ -5968,52 +5968,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>481.6968904858347</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C25" t="n">
-        <v>410.1538185715858</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D25" t="n">
-        <v>410.1538185715858</v>
+        <v>110.7876719299689</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715858</v>
+        <v>110.7876719299689</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6192,7 +6192,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.6968904858347</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6229,16 +6229,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2782.232616025903</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870721</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942216</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
         <v>263.2638710736754</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.890966501056</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W28" t="n">
-        <v>1507.550329366009</v>
+        <v>1191.724198940191</v>
       </c>
       <c r="X28" t="n">
-        <v>1279.560778467991</v>
+        <v>963.7346480421742</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.768199324461</v>
+        <v>742.942068898644</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6469,7 +6469,7 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
         <v>2216.257005193956</v>
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6688,7 +6688,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
@@ -6697,7 +6697,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,31 +6706,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686432</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6770,31 +6770,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>491.7343098287685</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C34" t="n">
-        <v>491.7343098287685</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D34" t="n">
-        <v>341.6176704164327</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="E34" t="n">
-        <v>193.7045768340396</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>193.7045768340396</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y34" t="n">
-        <v>673.3827746590082</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6940,16 +6940,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>583.5523174165364</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C37" t="n">
-        <v>414.6161344886295</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D37" t="n">
-        <v>264.4994950762938</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="E37" t="n">
-        <v>264.4994950762938</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>124.051783187328</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1644.746393431758</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1355.643526557401</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>1100.959038351514</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>811.5418683145538</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X37" t="n">
-        <v>583.5523174165364</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.5523174165364</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,7 +7159,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7171,34 +7171,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>540.4807149410336</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C40" t="n">
-        <v>540.4807149410336</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1840.053567312731</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1840.053567312731</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1550.950700438374</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>1296.266212232487</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570255</v>
+        <v>1006.849042195526</v>
       </c>
       <c r="X40" t="n">
-        <v>901.3723255570255</v>
+        <v>778.8594912975091</v>
       </c>
       <c r="Y40" t="n">
-        <v>680.5797464134954</v>
+        <v>558.0669121539789</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>674.3568109459524</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="C43" t="n">
-        <v>674.3568109459524</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D43" t="n">
-        <v>524.2401715336166</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E43" t="n">
-        <v>376.3270779512235</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>229.4371304533131</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1693.16361981482</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1404.060752940464</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.556111024461</v>
+        <v>1149.376264734577</v>
       </c>
       <c r="W43" t="n">
-        <v>1123.1389409875</v>
+        <v>859.959094697616</v>
       </c>
       <c r="X43" t="n">
-        <v>895.1493900894825</v>
+        <v>631.9695437995987</v>
       </c>
       <c r="Y43" t="n">
-        <v>674.3568109459524</v>
+        <v>411.1769646560685</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>750.1800661608906</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1614.698881814245</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>2593.249184644074</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N44" t="n">
-        <v>3573.001456870721</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>713.5009252592428</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C46" t="n">
-        <v>544.5647423313359</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="D46" t="n">
-        <v>544.5647423313359</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E46" t="n">
         <v>410.1538185715858</v>
@@ -7836,22 +7836,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.556111024461</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.1389409875</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>895.1493900894825</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>895.1493900894825</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>407.3126337606582</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9886,10 +9886,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>246.454569480844</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M29" t="n">
-        <v>201.9664098701116</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,16 +10363,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>67.53663776704383</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>295.4822118493981</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11062,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277306</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>87.32913021289862</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>117.5062691663784</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>254.1432245783011</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,13 +22837,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>52.02592219651726</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>81.63609966997416</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>158.0889556716747</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.9062841375612</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2.335964134057093</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>79.37013945530951</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>135.4705141405838</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>25.51495205287847</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>176.7418332110456</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>52.77216054947215</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>96.41917990352141</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>130.3466769161725</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>251.535767572894</v>
+        <v>279.9376944452102</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>128.1651665445298</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.8637012972395</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>144.1977802603391</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>137.819967007484</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.13393902420015</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>74.64202552738844</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>33.48847321415872</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>148.7699267806261</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>34.45276913823339</v>
       </c>
       <c r="E46" t="n">
-        <v>13.36714812441662</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1038397.581048951</v>
+        <v>747113.7212496292</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1038397.581048951</v>
+        <v>747113.721249629</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1038397.581048951</v>
+        <v>747113.721249629</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961716</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="E2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="F2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756814</v>
       </c>
       <c r="G2" t="n">
         <v>436789.9655756815</v>
       </c>
       <c r="H2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="I2" t="n">
         <v>436789.9655756815</v>
@@ -26340,22 +26340,22 @@
         <v>436789.9655756816</v>
       </c>
       <c r="K2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="L2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="M2" t="n">
         <v>436789.9655756815</v>
       </c>
       <c r="N2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="O2" t="n">
         <v>436789.9655756816</v>
       </c>
       <c r="P2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756815</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
@@ -26447,16 +26447,16 @@
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="M4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709187</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26505,10 +26505,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413460.5802450276</v>
+        <v>-409026.4933460728</v>
       </c>
       <c r="C6" t="n">
-        <v>176507.2989695168</v>
+        <v>180941.3858684716</v>
       </c>
       <c r="D6" t="n">
-        <v>176507.2989695168</v>
+        <v>180941.3858684718</v>
       </c>
       <c r="E6" t="n">
-        <v>-409262.5295707883</v>
+        <v>-408657.7701587565</v>
       </c>
       <c r="F6" t="n">
-        <v>318114.884422618</v>
+        <v>318719.6438346501</v>
       </c>
       <c r="G6" t="n">
-        <v>318114.8844226178</v>
+        <v>318719.6438346502</v>
       </c>
       <c r="H6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="I6" t="n">
-        <v>318114.884422618</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="J6" t="n">
-        <v>141691.6652300253</v>
+        <v>142296.4246420573</v>
       </c>
       <c r="K6" t="n">
-        <v>318114.8844226183</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="L6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346504</v>
       </c>
       <c r="M6" t="n">
-        <v>188472.5695836732</v>
+        <v>189077.3289957052</v>
       </c>
       <c r="N6" t="n">
-        <v>318114.8844226182</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="O6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="P6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346503</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,31 +26968,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>302.9145696239314</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>148.3046543496692</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.9207969366494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>311.6906701844466</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>243.2051448974511</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33034,7 +33034,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>946.2337495908849</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>323.7860185257249</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36606,10 +36606,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>798.7564048937555</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36682,7 +36682,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36837,10 +36837,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M29" t="n">
-        <v>740.8875257003384</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>466.2986239864155</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>751.0723262417303</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37545,19 +37545,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37782,28 +37782,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200628</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>470.4443441954251</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
